--- a/medicine/Handicap/Séquelle/Séquelle.xlsx
+++ b/medicine/Handicap/Séquelle/Séquelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quelle</t>
+          <t>Séquelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, on qualifie de séquelle un trouble inhérent à un problème de santé qui persiste après guérison de la cause première. Ladite séquelle peut être transitoire (ex : toux « chant du coq » pouvant durer jusqu'à quelques semaines après rémission de l'infection dans la coqueluche) ou permanente (ex : amputation traumatique de cause accidentelle).
 D'un point de vue médical, une séquelle est un symptôme, un handicap ou une simple trace, invalidante ou non, qui apparaît pendant le trouble et persiste au-delà de la rémission. Certaines guérissent entièrement (on parle alors de rémission complète), ou seulement partiellement ou pas du tout (on parle alors de morbidité). À noter que certaines séquelles sont partiellement héritables (mutations, marquages épigénétiques).
